--- a/medicine/Nettoyage et hygiène/Bain_à_ultrasons/Bain_à_ultrasons.xlsx
+++ b/medicine/Nettoyage et hygiène/Bain_à_ultrasons/Bain_à_ultrasons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bain_%C3%A0_ultrasons</t>
+          <t>Bain_à_ultrasons</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bain à ultrasons ou nettoyage à ultrasons ou sonicateur est une procédure accélérée de nettoyage de pièces ou de dissolution de produits par l’effet mécanique d’ondes ultrasonores de fréquence généralement comprises entre 20 kHz et 400 kHz.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bain_%C3%A0_ultrasons</t>
+          <t>Bain_à_ultrasons</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Généralement, le nettoyage par ultrasons s'effectue par immersion de la pièce à nettoyer dans un bain.
 Le dispositif comprend une cuve assez grande pour recevoir la pièce à nettoyer.
@@ -522,7 +536,7 @@
 L’implosion de ces bulles, pendant la phase de compression, provoque des turbulences au niveau de la pièce à nettoyer ou du produit à dissoudre.
 Ces turbulences détachent et éloignent les impuretés de la pièce ou accélèrent la dissolution.
 La dissolution de produits s'effectue de la même façon. Le récipient contenant le produit à dissoudre et son solvant peut remplacer la pièce à nettoyer dans un bac de plus grandes dimensions. Il suffit que sa paroi soit suffisamment dure et légère pour ne pas atténuer significativement les ultrasons.
-Des dispositifs sans cuve, dans lesquels le liquide de nettoyage circule entre la pièce à nettoyer et le transducteur, s'emploient aussi. Ils servent notamment pour le détartrage en soins dentaires, mais ont été utilisés pour d'autres nettoyages délicats comme ceux des vitraux[1].
+Des dispositifs sans cuve, dans lesquels le liquide de nettoyage circule entre la pièce à nettoyer et le transducteur, s'emploient aussi. Ils servent notamment pour le détartrage en soins dentaires, mais ont été utilisés pour d'autres nettoyages délicats comme ceux des vitraux.
 </t>
         </is>
       </c>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bain_%C3%A0_ultrasons</t>
+          <t>Bain_à_ultrasons</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,9 +565,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premières applications industrielles remontent aux années 1950. Les nettoyeurs à ultrasons, devenus plus abordables, ont trouvé une utilisation domestique dans les années 1970[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières applications industrielles remontent aux années 1950. Les nettoyeurs à ultrasons, devenus plus abordables, ont trouvé une utilisation domestique dans les années 1970.
 </t>
         </is>
       </c>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bain_%C3%A0_ultrasons</t>
+          <t>Bain_à_ultrasons</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Avantages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les avantages par rapport aux autres principes de nettoyage par immersion, à la brosse ou par jet à haute pression, sont :
 efficacité :
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bain_%C3%A0_ultrasons</t>
+          <t>Bain_à_ultrasons</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Domaines d’application</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Optique : nettoyage des lunettes et instruments optiques employés en médecine.
 Joaillerie : bijoux délicats, formes complexes et matériaux de grande valeur.
@@ -630,7 +650,7 @@
 Armurerie : nettoyage des douilles et des armes à feu
 Modélisme : nettoyage des aérographes et des petites pièces
 Mécanique : nettoyage des carburateurs, des injecteurs, pistons, bougies, bielles, etc.
-Divers : nettoyage de stylo-plume, moulinet de pêche, club de golf, instruments de mesure, cigarette électronique, nettoyage des atomiseurs, cleromiseurs, drippers, autres[2].</t>
+Divers : nettoyage de stylo-plume, moulinet de pêche, club de golf, instruments de mesure, cigarette électronique, nettoyage des atomiseurs, cleromiseurs, drippers, autres.</t>
         </is>
       </c>
     </row>
